--- a/biology/Histoire de la zoologie et de la botanique/Henry_Trimen/Henry_Trimen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Trimen/Henry_Trimen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Trimen est un botaniste britannique, né le 26 octobre 1843 et mort le 16 octobre 1896.
 Il est assistant au département de botanique du British Museum de 1869 à 1879. Il succède à George Henry Kendrick Thwaites à la tête du jardin botanique de l’université de Peradeniya à Kandy au Sri Lanka. Il est l’éditeur du Journal of Botany, British and Foreign de 1871 à 1896 (volumes 10 à 18). Il devient membre de la Royal Society le 7 juin 1888. Il est le frère de l’entomologiste Roland Trimen.
@@ -512,7 +524,9 @@
           <t>Œuvre scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trimen est notamment l’auteur de :
 Avec Sir William Turner Thiselton-Dyer (1843-1928) Flora of Middlesex : A topographical and historical account of the plants found in the county (Robert Hardwicke, 1869).
